--- a/output/1Y_P86_1VAL-D.xlsx
+++ b/output/1Y_P86_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>15.8442</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>631.1458</v>
       </c>
-      <c r="G2" s="1">
-        <v>631.1458</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1198</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.8442</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1198</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>15.9709</v>
       </c>
+      <c r="E3" s="1">
+        <v>631.1458</v>
+      </c>
       <c r="F3" s="1">
         <v>626.1387999999999</v>
       </c>
-      <c r="G3" s="1">
-        <v>1257.2846</v>
-      </c>
       <c r="H3" s="1">
-        <v>19975.7373</v>
+        <v>10027.6442</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.9073</v>
+        <v>10027.6442</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.8442</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19975.7373</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0014</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>16.743</v>
       </c>
+      <c r="E4" s="1">
+        <v>1257.2846</v>
+      </c>
       <c r="F4" s="1">
         <v>597.2645</v>
       </c>
-      <c r="G4" s="1">
-        <v>1854.5491</v>
-      </c>
       <c r="H4" s="1">
-        <v>30889.7407</v>
+        <v>20941.5833</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.1764</v>
+        <v>20941.5833</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.9073</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30889.7407</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0305</v>
+        <v>0.0456</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.6195</v>
       </c>
+      <c r="E5" s="1">
+        <v>1854.5491</v>
+      </c>
       <c r="F5" s="1">
         <v>567.553</v>
       </c>
-      <c r="G5" s="1">
-        <v>2422.1021</v>
-      </c>
       <c r="H5" s="1">
-        <v>42454.8477</v>
+        <v>32506.7221</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.5146</v>
+        <v>32506.7221</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.1764</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42454.8477</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0383</v>
+        <v>0.0506</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.6646</v>
       </c>
+      <c r="E6" s="1">
+        <v>2422.1021</v>
+      </c>
       <c r="F6" s="1">
         <v>566.104</v>
       </c>
-      <c r="G6" s="1">
-        <v>2988.2061</v>
-      </c>
       <c r="H6" s="1">
-        <v>52511.745</v>
+        <v>42563.6001</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.7324</v>
+        <v>42563.6001</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.5146</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52511.745</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0011</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.2588</v>
       </c>
+      <c r="E7" s="1">
+        <v>2988.2061</v>
+      </c>
       <c r="F7" s="1">
         <v>579.4146</v>
       </c>
-      <c r="G7" s="1">
-        <v>3567.6206</v>
-      </c>
       <c r="H7" s="1">
-        <v>61253.5486</v>
+        <v>51305.4062</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.8179</v>
+        <v>51305.4062</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.7324</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61253.5486</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0201</v>
+        <v>-0.0239</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>16.8469</v>
       </c>
+      <c r="E8" s="1">
+        <v>3567.6206</v>
+      </c>
       <c r="F8" s="1">
         <v>593.581</v>
       </c>
-      <c r="G8" s="1">
-        <v>4161.2016</v>
-      </c>
       <c r="H8" s="1">
-        <v>69740.0748</v>
+        <v>59791.8945</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.8221</v>
+        <v>59791.8945</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>16.8179</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.47</v>
       </c>
-      <c r="L8" s="1">
-        <v>1509.1035</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-8490.896500000001</v>
+        <v>1264.0112</v>
       </c>
       <c r="O8" s="1">
-        <v>1509.1035</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71249.1783</v>
+        <v>-8735.988799999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0001</v>
+        <v>-0.0247</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>16.9739</v>
       </c>
+      <c r="E9" s="1">
+        <v>4161.2016</v>
+      </c>
       <c r="F9" s="1">
-        <v>606.9213</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4768.1229</v>
+        <v>604.0334</v>
       </c>
       <c r="H9" s="1">
-        <v>80513.56939999999</v>
+        <v>70265.2185</v>
       </c>
       <c r="I9" s="1">
-        <v>80301.8207</v>
+        <v>1264.0112</v>
       </c>
       <c r="J9" s="1">
-        <v>16.8414</v>
+        <v>71529.22960000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70252.80220000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.8828</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10301.8207</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1207.2828</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>81720.85219999999</v>
+        <v>-10252.8022</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0058</v>
+        <v>0.0249</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.6787</v>
       </c>
+      <c r="E10" s="1">
+        <v>4765.235</v>
+      </c>
       <c r="F10" s="1">
-        <v>582.725</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5350.8479</v>
+        <v>579.9523</v>
       </c>
       <c r="H10" s="1">
-        <v>94105.36199999999</v>
+        <v>83806.1882</v>
       </c>
       <c r="I10" s="1">
-        <v>90603.64139999999</v>
+        <v>1011.2089</v>
       </c>
       <c r="J10" s="1">
-        <v>16.9326</v>
+        <v>84817.3971</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80505.6045</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.8944</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10301.8207</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>905.4621</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>95010.8241</v>
+        <v>-10252.8022</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0359</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.7792</v>
       </c>
+      <c r="E11" s="1">
+        <v>5345.1873</v>
+      </c>
       <c r="F11" s="1">
-        <v>579.4311</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5930.279</v>
+        <v>576.674</v>
       </c>
       <c r="H11" s="1">
-        <v>104888.844</v>
+        <v>94540.3275</v>
       </c>
       <c r="I11" s="1">
-        <v>100905.4621</v>
+        <v>758.4067</v>
       </c>
       <c r="J11" s="1">
-        <v>17.0153</v>
+        <v>95298.73420000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90758.40670000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.9795</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10301.8207</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>603.6414</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>105492.4854</v>
+        <v>-10252.8022</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0046</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>18.0055</v>
       </c>
+      <c r="E12" s="1">
+        <v>5921.8613</v>
+      </c>
       <c r="F12" s="1">
-        <v>572.1485</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6502.4275</v>
+        <v>569.4261</v>
       </c>
       <c r="H12" s="1">
-        <v>116472.782</v>
+        <v>106073.5635</v>
       </c>
       <c r="I12" s="1">
-        <v>111207.2828</v>
+        <v>505.6045</v>
       </c>
       <c r="J12" s="1">
-        <v>17.1024</v>
+        <v>106579.168</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101011.2089</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.0573</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10301.8207</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>301.8207</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>116774.6027</v>
+        <v>-10252.8022</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0111</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>18.1364</v>
       </c>
+      <c r="E13" s="1">
+        <v>6491.2874</v>
+      </c>
       <c r="F13" s="1">
-        <v>568.0191</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7070.4466</v>
+        <v>565.3163</v>
       </c>
       <c r="H13" s="1">
-        <v>127567.1179</v>
+        <v>117117.7548</v>
       </c>
       <c r="I13" s="1">
-        <v>121509.1035</v>
+        <v>252.8022</v>
       </c>
       <c r="J13" s="1">
-        <v>17.1855</v>
+        <v>117370.557</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111264.0112</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.1405</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10301.8207</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>127567.1179</v>
+        <v>-10252.8022</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0063</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>18.2605</v>
       </c>
+      <c r="E14" s="1">
+        <v>7056.6037</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7070.4466</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6491.2874</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128188.8513</v>
       </c>
       <c r="I14" s="1">
-        <v>121509.1035</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.1855</v>
+        <v>128188.8513</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111264.0112</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.7674</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>128440.3181</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>128440.3181</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128440.3181</v>
+        <v>117919.4288</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0663</v>
+        <v>0.0064</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>15.8442</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>631.1458</v>
       </c>
       <c r="G2" s="1">
-        <v>631.1458</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1198</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.8442</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1198</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>15.9709</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>631.1458</v>
       </c>
       <c r="F3" s="1">
         <v>627.6659</v>
       </c>
       <c r="G3" s="1">
-        <v>1258.8117</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10027.6442</v>
       </c>
       <c r="I3" s="1">
-        <v>20024.3893</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.9074</v>
+        <v>10027.6442</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10024.3893</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.8828</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10024.3893</v>
       </c>
-      <c r="O3" s="1">
-        <v>-24.3893</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19975.6107</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0014</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>16.743</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1258.8117</v>
       </c>
       <c r="F4" s="1">
         <v>542.3194</v>
       </c>
       <c r="G4" s="1">
-        <v>1801.1311</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20967.0191</v>
       </c>
       <c r="I4" s="1">
-        <v>29104.4435</v>
+        <v>-24.3893</v>
       </c>
       <c r="J4" s="1">
-        <v>16.159</v>
+        <v>20942.6298</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19104.4435</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.1766</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9080.0542</v>
       </c>
-      <c r="O4" s="1">
-        <v>895.5565</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30895.5565</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0307</v>
+        <v>0.0457</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.6195</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1801.1311</v>
       </c>
       <c r="F5" s="1">
         <v>480.9189</v>
       </c>
       <c r="G5" s="1">
-        <v>2282.05</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31570.4062</v>
       </c>
       <c r="I5" s="1">
-        <v>37577.9933</v>
+        <v>895.5565</v>
       </c>
       <c r="J5" s="1">
-        <v>16.4668</v>
+        <v>32465.9627</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27577.9933</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.3115</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8473.549800000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>2422.0067</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42422.0067</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0373</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.6646</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2282.05</v>
       </c>
       <c r="F6" s="1">
         <v>563.224</v>
       </c>
       <c r="G6" s="1">
-        <v>2845.274</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>40102.464</v>
       </c>
       <c r="I6" s="1">
-        <v>47527.1206</v>
+        <v>2422.0067</v>
       </c>
       <c r="J6" s="1">
-        <v>16.7039</v>
+        <v>42524.4708</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37527.1206</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.4445</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9949.1273</v>
       </c>
-      <c r="O6" s="1">
-        <v>2472.8794</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52472.8794</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.001</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.2588</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2845.274</v>
       </c>
       <c r="F7" s="1">
         <v>649.3356</v>
       </c>
       <c r="G7" s="1">
-        <v>3494.6096</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>48851.3629</v>
       </c>
       <c r="I7" s="1">
-        <v>58733.8732</v>
+        <v>2472.8794</v>
       </c>
       <c r="J7" s="1">
-        <v>16.807</v>
+        <v>51324.2423</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48733.8732</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.128</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11206.7526</v>
       </c>
-      <c r="O7" s="1">
-        <v>1266.1268</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61266.1268</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0193</v>
+        <v>-0.0229</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>16.8469</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3494.6096</v>
       </c>
       <c r="F8" s="1">
         <v>668.7359</v>
       </c>
       <c r="G8" s="1">
-        <v>4163.3455</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>69776.0046</v>
+        <v>58568.2585</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>1266.1268</v>
       </c>
       <c r="J8" s="1">
-        <v>16.8134</v>
+        <v>59834.3853</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>17.1693</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.47</v>
       </c>
-      <c r="L8" s="1">
-        <v>1478.2198</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-9787.906999999999</v>
+        <v>1203.5509</v>
       </c>
       <c r="O8" s="1">
-        <v>1478.2198</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71254.2245</v>
+        <v>-10062.5759</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0002</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>16.9739</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4163.3455</v>
       </c>
       <c r="F9" s="1">
         <v>574.3631</v>
       </c>
       <c r="G9" s="1">
-        <v>4737.7086</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>70301.4188</v>
       </c>
       <c r="I9" s="1">
-        <v>79749.1826</v>
+        <v>1203.5509</v>
       </c>
       <c r="J9" s="1">
-        <v>16.8329</v>
+        <v>71504.9697</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69749.1826</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.7532</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9749.1826</v>
       </c>
-      <c r="O9" s="1">
-        <v>1729.0373</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81729.0373</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0058</v>
+        <v>0.0239</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.6787</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4737.7086</v>
       </c>
       <c r="F10" s="1">
         <v>379.7077</v>
       </c>
       <c r="G10" s="1">
-        <v>5117.4163</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>83322.08130000001</v>
       </c>
       <c r="I10" s="1">
-        <v>86461.92049999999</v>
+        <v>1454.3683</v>
       </c>
       <c r="J10" s="1">
-        <v>16.8956</v>
+        <v>84776.44960000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76461.92049999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.139</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6712.7379</v>
       </c>
-      <c r="O10" s="1">
-        <v>5016.2993</v>
-      </c>
-      <c r="P10" s="1">
-        <v>95016.2993</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0358</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.7792</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5117.4163</v>
       </c>
       <c r="F11" s="1">
         <v>536.4538</v>
       </c>
       <c r="G11" s="1">
-        <v>5653.8701</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>90511.74159999999</v>
       </c>
       <c r="I11" s="1">
-        <v>95999.63989999999</v>
+        <v>4741.6304</v>
       </c>
       <c r="J11" s="1">
-        <v>16.9795</v>
+        <v>95253.372</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>85999.63989999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.8053</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9537.7194</v>
       </c>
-      <c r="O11" s="1">
-        <v>5478.5799</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105478.5799</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0044</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>18.0055</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5653.8701</v>
       </c>
       <c r="F12" s="1">
         <v>487.1958</v>
       </c>
       <c r="G12" s="1">
-        <v>6141.0659</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>101273.2515</v>
       </c>
       <c r="I12" s="1">
-        <v>104771.8437</v>
+        <v>5203.911</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0609</v>
+        <v>106477.1625</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>94771.8437</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.7623</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8772.203799999999</v>
       </c>
-      <c r="O12" s="1">
-        <v>6706.3761</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116706.3761</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0106</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>18.1364</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6141.0659</v>
       </c>
       <c r="F13" s="1">
         <v>509.9709</v>
       </c>
       <c r="G13" s="1">
-        <v>6651.0367</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>110798.9527</v>
       </c>
       <c r="I13" s="1">
-        <v>114020.8793</v>
+        <v>6431.7072</v>
       </c>
       <c r="J13" s="1">
-        <v>17.1433</v>
+        <v>117230.6598</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>104020.8793</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.9386</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9249.035599999999</v>
       </c>
-      <c r="O13" s="1">
-        <v>7457.3405</v>
-      </c>
-      <c r="P13" s="1">
-        <v>127457.3405</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0059</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>18.2605</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6651.0367</v>
       </c>
       <c r="F14" s="1">
         <v>-6651.0367</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120821.403</v>
       </c>
       <c r="I14" s="1">
-        <v>114020.8793</v>
+        <v>7182.6716</v>
       </c>
       <c r="J14" s="1">
-        <v>17.1433</v>
+        <v>128004.0746</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>104020.8793</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.6398</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>120821.403</v>
       </c>
-      <c r="O14" s="1">
-        <v>128278.7436</v>
-      </c>
-      <c r="P14" s="1">
-        <v>128278.7436</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0668</v>
+        <v>0.0061</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>15.8442</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>631.1458</v>
       </c>
       <c r="G2" s="1">
-        <v>631.1458</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1198</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.8442</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1198</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>15.9709</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>631.1458</v>
       </c>
       <c r="F3" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1257.2846</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19975.7373</v>
+        <v>10027.6442</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.9073</v>
+        <v>10027.6442</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.8442</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19975.7373</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0014</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>16.743</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1257.2846</v>
       </c>
       <c r="F4" s="1">
         <v>552.8672</v>
       </c>
       <c r="G4" s="1">
-        <v>1810.1518</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20941.5833</v>
       </c>
       <c r="I4" s="1">
-        <v>29256.6556</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.1625</v>
+        <v>20941.5833</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19256.6556</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.3161</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9256.6556</v>
       </c>
-      <c r="O4" s="1">
-        <v>743.3444</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30893.5944</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0306</v>
+        <v>0.0456</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.6195</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1810.1518</v>
       </c>
       <c r="F5" s="1">
         <v>489.0707</v>
       </c>
       <c r="G5" s="1">
-        <v>2299.2225</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31728.5213</v>
       </c>
       <c r="I5" s="1">
-        <v>37873.8366</v>
+        <v>743.3444</v>
       </c>
       <c r="J5" s="1">
-        <v>16.4725</v>
+        <v>32471.8657</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27873.8366</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.3986</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8617.181</v>
       </c>
-      <c r="O5" s="1">
-        <v>2126.1634</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42427.1647</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0375</v>
+        <v>0.0495</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.6646</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2299.2225</v>
       </c>
       <c r="F6" s="1">
         <v>574.6469</v>
       </c>
       <c r="G6" s="1">
-        <v>2873.8694</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>40404.2363</v>
       </c>
       <c r="I6" s="1">
-        <v>48024.7441</v>
+        <v>2126.1634</v>
       </c>
       <c r="J6" s="1">
-        <v>16.7108</v>
+        <v>42530.3998</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38024.7441</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.5381</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10150.9076</v>
       </c>
-      <c r="O6" s="1">
-        <v>1975.2559</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52477.7621</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.001</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.2588</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2873.8694</v>
       </c>
       <c r="F7" s="1">
         <v>664.7151</v>
       </c>
       <c r="G7" s="1">
-        <v>3538.5845</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>49342.3252</v>
       </c>
       <c r="I7" s="1">
-        <v>59496.9297</v>
+        <v>1975.2559</v>
       </c>
       <c r="J7" s="1">
-        <v>16.8138</v>
+        <v>51317.5811</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49496.9297</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.2231</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11472.1856</v>
       </c>
-      <c r="O7" s="1">
-        <v>503.0703</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61258.0891</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0195</v>
+        <v>-0.0231</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>16.8469</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3538.5845</v>
       </c>
       <c r="F8" s="1">
         <v>623.4423</v>
       </c>
       <c r="G8" s="1">
-        <v>4162.0268</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>69753.9045</v>
+        <v>59305.2607</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>503.0703</v>
       </c>
       <c r="J8" s="1">
-        <v>16.8187</v>
+        <v>59808.331</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>16.9559</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.47</v>
       </c>
-      <c r="L8" s="1">
-        <v>1496.8212</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-9006.249</v>
+        <v>1215.6467</v>
       </c>
       <c r="O8" s="1">
-        <v>1496.8212</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71250.7257</v>
+        <v>-9287.423500000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0001</v>
+        <v>-0.0246</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>16.9739</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4162.0268</v>
       </c>
       <c r="F9" s="1">
         <v>659.426</v>
       </c>
       <c r="G9" s="1">
-        <v>4821.4528</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>70279.1523</v>
       </c>
       <c r="I9" s="1">
-        <v>81193.031</v>
+        <v>1215.6467</v>
       </c>
       <c r="J9" s="1">
-        <v>16.84</v>
+        <v>71494.799</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71193.031</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.1054</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11193.031</v>
       </c>
-      <c r="O9" s="1">
-        <v>303.7902</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81717.8781</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0057</v>
+        <v>0.0242</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.6787</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4821.4528</v>
       </c>
       <c r="F10" s="1">
         <v>399.5149</v>
       </c>
       <c r="G10" s="1">
-        <v>5220.9677</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>84794.8906</v>
       </c>
       <c r="I10" s="1">
-        <v>88255.93429999999</v>
+        <v>22.6157</v>
       </c>
       <c r="J10" s="1">
-        <v>16.9041</v>
+        <v>84817.50629999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78255.93429999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.2308</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7062.9032</v>
       </c>
-      <c r="O10" s="1">
-        <v>3240.887</v>
-      </c>
-      <c r="P10" s="1">
-        <v>95062.0453</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0365</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.7792</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5220.9677</v>
       </c>
       <c r="F11" s="1">
         <v>561.8256</v>
       </c>
       <c r="G11" s="1">
-        <v>5782.7932</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>92343.25509999999</v>
       </c>
       <c r="I11" s="1">
-        <v>98244.7436</v>
+        <v>2959.7125</v>
       </c>
       <c r="J11" s="1">
-        <v>16.9892</v>
+        <v>95302.9675</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88244.7436</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.902</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9988.809300000001</v>
       </c>
-      <c r="O11" s="1">
-        <v>3252.0776</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105532.3417</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0045</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>18.0055</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5782.7932</v>
       </c>
       <c r="F12" s="1">
         <v>514.1254</v>
       </c>
       <c r="G12" s="1">
-        <v>6296.9186</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>103582.5491</v>
       </c>
       <c r="I12" s="1">
-        <v>107501.8278</v>
+        <v>2970.9031</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0721</v>
+        <v>106553.4522</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>97501.8278</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.8607</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9257.084199999999</v>
       </c>
-      <c r="O12" s="1">
-        <v>3994.9935</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116786.6589</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0109</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>18.1364</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6296.9186</v>
       </c>
       <c r="F13" s="1">
         <v>540.1046</v>
       </c>
       <c r="G13" s="1">
-        <v>6837.0232</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>113610.8945</v>
       </c>
       <c r="I13" s="1">
-        <v>117297.3808</v>
+        <v>3713.8189</v>
       </c>
       <c r="J13" s="1">
-        <v>17.1562</v>
+        <v>117324.7135</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>107297.3808</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.0397</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9795.553099999999</v>
       </c>
-      <c r="O13" s="1">
-        <v>4199.4404</v>
-      </c>
-      <c r="P13" s="1">
-        <v>127555.0641</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0061</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>18.2605</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6837.0232</v>
       </c>
       <c r="F14" s="1">
         <v>-6837.0232</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124199.9961</v>
       </c>
       <c r="I14" s="1">
-        <v>117297.3808</v>
+        <v>3918.2659</v>
       </c>
       <c r="J14" s="1">
-        <v>17.1562</v>
+        <v>128118.262</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>107297.3808</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.6936</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>124199.9961</v>
       </c>
-      <c r="O14" s="1">
-        <v>128399.4365</v>
-      </c>
-      <c r="P14" s="1">
-        <v>128399.4365</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.06660000000000001</v>
+        <v>0.0062</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>15.8442</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>631.1458</v>
       </c>
       <c r="G2" s="1">
-        <v>631.1458</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1198</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.8442</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1198</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>15.9709</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>631.1458</v>
       </c>
       <c r="F3" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1257.2846</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19975.7373</v>
+        <v>10027.6442</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.9073</v>
+        <v>10027.6442</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.8442</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19975.7373</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0014</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>16.743</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1257.2846</v>
       </c>
       <c r="F4" s="1">
         <v>561.9179</v>
       </c>
       <c r="G4" s="1">
-        <v>1819.2025</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20941.5833</v>
       </c>
       <c r="I4" s="1">
-        <v>29408.1912</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.1654</v>
+        <v>20941.5833</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19408.1912</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.4366</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9408.191199999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>591.8088</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30892.8088</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0306</v>
+        <v>0.0456</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.6195</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1819.2025</v>
       </c>
       <c r="F5" s="1">
         <v>497.307</v>
       </c>
       <c r="G5" s="1">
-        <v>2316.5095</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31887.1626</v>
       </c>
       <c r="I5" s="1">
-        <v>38170.4924</v>
+        <v>591.8088</v>
       </c>
       <c r="J5" s="1">
-        <v>16.4776</v>
+        <v>32478.9714</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28170.4924</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.4851</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8762.3012</v>
       </c>
-      <c r="O5" s="1">
-        <v>1829.5076</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42433.5176</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0377</v>
+        <v>0.0497</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.6646</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2316.5095</v>
       </c>
       <c r="F6" s="1">
         <v>586.2419</v>
       </c>
       <c r="G6" s="1">
-        <v>2902.7514</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>40708.0213</v>
       </c>
       <c r="I6" s="1">
-        <v>48526.221</v>
+        <v>1829.5076</v>
       </c>
       <c r="J6" s="1">
-        <v>16.7173</v>
+        <v>42537.5289</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38526.221</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.6312</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10355.7286</v>
       </c>
-      <c r="O6" s="1">
-        <v>1473.779</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52483.8291</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.001</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.2588</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2902.7514</v>
       </c>
       <c r="F7" s="1">
         <v>664.8075</v>
       </c>
       <c r="G7" s="1">
-        <v>3567.5588</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61252.4881</v>
+        <v>49838.2094</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>1473.779</v>
       </c>
       <c r="J7" s="1">
-        <v>16.8182</v>
+        <v>51311.9884</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.225</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11473.779</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61252.4881</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0197</v>
+        <v>-0.0233</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>16.8469</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3567.5588</v>
       </c>
       <c r="F8" s="1">
         <v>593.581</v>
       </c>
       <c r="G8" s="1">
-        <v>4161.1399</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>69739.0396</v>
+        <v>59790.8592</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.8223</v>
+        <v>59790.8592</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>16.8182</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.47</v>
       </c>
-      <c r="L8" s="1">
-        <v>1509.0774</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-8490.9226</v>
+        <v>1227.8638</v>
       </c>
       <c r="O8" s="1">
-        <v>1509.0774</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71248.117</v>
+        <v>-8772.136200000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0001</v>
+        <v>-0.0248</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>16.9739</v>
       </c>
       <c r="E9" s="1">
+        <v>4161.1399</v>
+      </c>
+      <c r="F9" s="1">
+        <v>661.4781</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>678.0456</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4839.1854</v>
-      </c>
       <c r="H9" s="1">
-        <v>81713.51700000001</v>
+        <v>70264.1755</v>
       </c>
       <c r="I9" s="1">
-        <v>81509.07739999999</v>
+        <v>1227.8638</v>
       </c>
       <c r="J9" s="1">
-        <v>16.8436</v>
+        <v>71492.0393</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71227.86380000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.1174</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-11509.0774</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>81713.51700000001</v>
+        <v>-11227.8638</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0057</v>
+        <v>0.0244</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.6787</v>
       </c>
       <c r="E10" s="1">
+        <v>4822.618</v>
+      </c>
+      <c r="F10" s="1">
+        <v>504.3435</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>487.7761</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5326.9615</v>
-      </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>84815.38280000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90132.3253</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.92</v>
+        <v>84815.38280000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80144.00199999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.6184</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-8623.2479</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1376.7521</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>95062.0248</v>
+        <v>-8916.138199999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0365</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.7792</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5326.9615</v>
       </c>
       <c r="F11" s="1">
         <v>588.2375</v>
       </c>
       <c r="G11" s="1">
-        <v>5915.199</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>94217.9688</v>
       </c>
       <c r="I11" s="1">
-        <v>100590.7174</v>
+        <v>1083.8618</v>
       </c>
       <c r="J11" s="1">
-        <v>17.0055</v>
+        <v>95301.83070000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90602.3941</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.0083</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10458.3921</v>
       </c>
-      <c r="O11" s="1">
-        <v>918.36</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105540.4854</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0046</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>18.0055</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5915.199</v>
       </c>
       <c r="F12" s="1">
         <v>542.3185999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6457.5176</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>105954.2282</v>
       </c>
       <c r="I12" s="1">
-        <v>110355.4341</v>
+        <v>625.4698</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0895</v>
+        <v>106579.698</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100367.1108</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.9677</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9764.7168</v>
       </c>
-      <c r="O12" s="1">
-        <v>1153.6433</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116821.9899</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0111</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>18.1364</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6457.5176</v>
       </c>
       <c r="F13" s="1">
         <v>571.7985</v>
       </c>
       <c r="G13" s="1">
-        <v>7029.3161</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>116508.4697</v>
       </c>
       <c r="I13" s="1">
-        <v>120725.8008</v>
+        <v>860.753</v>
       </c>
       <c r="J13" s="1">
-        <v>17.1746</v>
+        <v>117369.2227</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110737.4775</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.1486</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10370.3667</v>
       </c>
-      <c r="O13" s="1">
-        <v>783.2766</v>
-      </c>
-      <c r="P13" s="1">
-        <v>127608.3067</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0062</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>18.2605</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7029.3161</v>
       </c>
       <c r="F14" s="1">
         <v>-7029.3161</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127693.1507</v>
       </c>
       <c r="I14" s="1">
-        <v>120725.8008</v>
+        <v>490.3863</v>
       </c>
       <c r="J14" s="1">
-        <v>17.1746</v>
+        <v>128183.537</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110737.4775</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.7537</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>127693.1507</v>
       </c>
-      <c r="O14" s="1">
-        <v>128476.4273</v>
-      </c>
-      <c r="P14" s="1">
-        <v>128476.4273</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0664</v>
+        <v>0.0064</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>15.8442</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>631.1458</v>
       </c>
       <c r="G2" s="1">
-        <v>631.1458</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1198</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.8442</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1198</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>15.9709</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>631.1458</v>
       </c>
       <c r="F3" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1257.2846</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19975.7373</v>
+        <v>10027.6442</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.9073</v>
+        <v>10027.6442</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.8442</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19975.7373</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0014</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>16.743</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1257.2846</v>
       </c>
       <c r="F4" s="1">
         <v>570.9986</v>
       </c>
       <c r="G4" s="1">
-        <v>1828.2832</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20941.5833</v>
       </c>
       <c r="I4" s="1">
-        <v>29560.2294</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.1683</v>
+        <v>20941.5833</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19560.2294</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.5575</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9560.2294</v>
       </c>
-      <c r="O4" s="1">
-        <v>439.7706</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30892.0206</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0306</v>
+        <v>0.0456</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.6195</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1828.2832</v>
       </c>
       <c r="F5" s="1">
         <v>505.6283</v>
       </c>
       <c r="G5" s="1">
-        <v>2333.9115</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>32046.3301</v>
       </c>
       <c r="I5" s="1">
-        <v>38469.1475</v>
+        <v>439.7706</v>
       </c>
       <c r="J5" s="1">
-        <v>16.4827</v>
+        <v>32486.1007</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28469.1475</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.5715</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8908.918100000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>1530.8525</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42439.8863</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0379</v>
+        <v>0.0499</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.6646</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2333.9115</v>
       </c>
       <c r="F6" s="1">
         <v>598.0107</v>
       </c>
       <c r="G6" s="1">
-        <v>2931.9222</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>41013.8264</v>
       </c>
       <c r="I6" s="1">
-        <v>49032.7681</v>
+        <v>1530.8525</v>
       </c>
       <c r="J6" s="1">
-        <v>16.7238</v>
+        <v>42544.6789</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39032.7681</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.7242</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10563.6207</v>
       </c>
-      <c r="O6" s="1">
-        <v>967.2319</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52489.9011</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.001</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.2588</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2931.9222</v>
       </c>
       <c r="F7" s="1">
         <v>635.4574</v>
       </c>
       <c r="G7" s="1">
-        <v>3567.3796</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>61249.4107</v>
+        <v>50339.0523</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>967.2319</v>
       </c>
       <c r="J7" s="1">
-        <v>16.8191</v>
+        <v>51306.2841</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.0537</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10967.2319</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61249.4107</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0199</v>
+        <v>-0.0236</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>16.8469</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3567.3796</v>
       </c>
       <c r="F8" s="1">
         <v>593.581</v>
       </c>
       <c r="G8" s="1">
-        <v>4160.9606</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>69736.0356</v>
+        <v>59787.8552</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.823</v>
+        <v>59787.8552</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>16.8191</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.47</v>
       </c>
-      <c r="L8" s="1">
-        <v>1509.0016</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-8490.9984</v>
+        <v>1240.2031</v>
       </c>
       <c r="O8" s="1">
-        <v>1509.0016</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71245.03720000001</v>
+        <v>-8759.796899999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0001</v>
+        <v>-0.0248</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>16.9739</v>
       </c>
       <c r="E9" s="1">
+        <v>4160.9606</v>
+      </c>
+      <c r="F9" s="1">
+        <v>662.2051</v>
+      </c>
+      <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>678.0411</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4839.0017</v>
-      </c>
       <c r="H9" s="1">
-        <v>81710.41499999999</v>
+        <v>70261.1489</v>
       </c>
       <c r="I9" s="1">
-        <v>81509.0016</v>
+        <v>1240.2031</v>
       </c>
       <c r="J9" s="1">
-        <v>16.8442</v>
+        <v>71501.352</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71240.2031</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.1211</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-11509.0016</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>81710.41499999999</v>
+        <v>-11240.2031</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0057</v>
+        <v>0.0246</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.6787</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4823.1657</v>
       </c>
       <c r="F10" s="1">
         <v>565.6525</v>
       </c>
       <c r="G10" s="1">
-        <v>5404.6542</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95051.65270000001</v>
+        <v>84825.01549999999</v>
       </c>
       <c r="I10" s="1">
-        <v>91509.0016</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.9315</v>
+        <v>84825.01549999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81240.2031</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.8438</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>95051.65270000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0364</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.7792</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5388.8182</v>
       </c>
       <c r="F11" s="1">
         <v>562.455</v>
       </c>
       <c r="G11" s="1">
-        <v>5967.1092</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>105540.2597</v>
+        <v>95312.027</v>
       </c>
       <c r="I11" s="1">
-        <v>101509.0016</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.0114</v>
+        <v>95312.027</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91240.2031</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.9314</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105540.2597</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0047</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>18.0055</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5951.2732</v>
       </c>
       <c r="F12" s="1">
         <v>555.3859</v>
       </c>
       <c r="G12" s="1">
-        <v>6522.495</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>116832.2352</v>
+        <v>106600.3953</v>
       </c>
       <c r="I12" s="1">
-        <v>111509.0016</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0961</v>
+        <v>106600.3953</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101240.2031</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.0115</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116832.2352</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0112</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>18.1364</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6506.659</v>
       </c>
       <c r="F13" s="1">
         <v>551.3773</v>
       </c>
       <c r="G13" s="1">
-        <v>7073.8724</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>127628.9272</v>
+        <v>117395.0942</v>
       </c>
       <c r="I13" s="1">
-        <v>121509.0016</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.1772</v>
+        <v>117395.0942</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111240.2031</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.0964</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>127628.9272</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0063</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>18.2605</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7058.0364</v>
       </c>
       <c r="F14" s="1">
-        <v>-7073.8724</v>
+        <v>-7058.0364</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128214.8771</v>
       </c>
       <c r="I14" s="1">
-        <v>121509.0016</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.1772</v>
+        <v>128214.8771</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111240.2031</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.7608</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>128502.5505</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>128502.5505</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128502.5505</v>
+        <v>128214.8771</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0663</v>
+        <v>0.0064</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>18.2113</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.1855</v>
+        <v>15.7674</v>
       </c>
       <c r="D3" s="1">
-        <v>17.1433</v>
+        <v>15.6398</v>
       </c>
       <c r="E3" s="1">
-        <v>17.1562</v>
+        <v>15.6936</v>
       </c>
       <c r="F3" s="1">
-        <v>17.1746</v>
+        <v>15.7537</v>
       </c>
       <c r="G3" s="1">
-        <v>17.1772</v>
+        <v>15.7608</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.146</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0483</v>
+        <v>0.1474</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0467</v>
+        <v>0.1452</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0479</v>
+        <v>0.1463</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0486</v>
+        <v>0.1469</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0488</v>
+        <v>0.1473</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.0809</v>
       </c>
       <c r="C5" s="3">
-        <v>0.09229999999999999</v>
+        <v>0.0808</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0921</v>
+        <v>0.0794</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0922</v>
+        <v>0.0799</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0922</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0922</v>
+        <v>0.0805</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.5535</v>
       </c>
       <c r="C6" s="4">
-        <v>0.3034</v>
+        <v>1.5721</v>
       </c>
       <c r="D6" s="4">
-        <v>0.287</v>
+        <v>1.5732</v>
       </c>
       <c r="E6" s="4">
-        <v>0.2989</v>
+        <v>1.5762</v>
       </c>
       <c r="F6" s="4">
-        <v>0.3063</v>
+        <v>1.5775</v>
       </c>
       <c r="G6" s="4">
-        <v>0.3088</v>
+        <v>1.5782</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1332</v>
+        <v>-0.032</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1359</v>
+        <v>0.131</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1356</v>
+        <v>0.1306</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1347</v>
+        <v>0.1297</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1342</v>
+        <v>0.1295</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1509.1035</v>
+        <v>1264.0112</v>
       </c>
       <c r="D8" s="1">
-        <v>1478.2198</v>
+        <v>1203.5509</v>
       </c>
       <c r="E8" s="1">
-        <v>1496.8212</v>
+        <v>1215.6467</v>
       </c>
       <c r="F8" s="1">
-        <v>1509.0774</v>
+        <v>1227.8638</v>
       </c>
       <c r="G8" s="1">
-        <v>1509.0016</v>
+        <v>1240.2031</v>
       </c>
     </row>
   </sheetData>
